--- a/Yahoo股市/yahoo股價.xlsx
+++ b/Yahoo股市/yahoo股價.xlsx
@@ -21706,7 +21706,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>2190.00</t>
+          <t>2,190.00</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -21721,12 +21721,12 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2215.00</t>
+          <t>2,215.00</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2200.00</t>
+          <t>2,200.00</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -48366,7 +48366,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>17081.46</t>
+          <t>17,081.46</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -48381,12 +48381,12 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>17170.46</t>
+          <t>17,170.46</t>
         </is>
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>17155.32</t>
+          <t>17,155.32</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -48428,7 +48428,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>14213.75</t>
+          <t>14,213.75</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
@@ -48443,12 +48443,12 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>14271.64</t>
+          <t>14,271.64</t>
         </is>
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>14254.03</t>
+          <t>14,254.03</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -48490,7 +48490,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>7083.44</t>
+          <t>7,083.44</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -48505,12 +48505,12 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>7130.82</t>
+          <t>7,130.82</t>
         </is>
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>7133.12</t>
+          <t>7,133.12</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -48552,7 +48552,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>6277.07</t>
+          <t>6,277.07</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -48567,12 +48567,12 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>6328.10</t>
+          <t>6,328.10</t>
         </is>
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>6333.53</t>
+          <t>6,333.53</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -48614,7 +48614,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>11092.49</t>
+          <t>11,092.49</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
@@ -48629,12 +48629,12 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>11171.23</t>
+          <t>11,171.23</t>
         </is>
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>11175.49</t>
+          <t>11,175.49</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -48676,7 +48676,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>5947.38</t>
+          <t>5,947.38</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -48691,12 +48691,12 @@
       </c>
       <c r="G779" t="inlineStr">
         <is>
-          <t>5962.68</t>
+          <t>5,962.68</t>
         </is>
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>5956.98</t>
+          <t>5,956.98</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -48738,7 +48738,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>9510.00</t>
+          <t>9,510.00</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
@@ -48753,12 +48753,12 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>9588.74</t>
+          <t>9,588.74</t>
         </is>
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>9573.57</t>
+          <t>9,573.57</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -48800,7 +48800,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>18966.42</t>
+          <t>18,966.42</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
@@ -48815,12 +48815,12 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>19097.98</t>
+          <t>19,097.98</t>
         </is>
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>19106.21</t>
+          <t>19,106.21</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -48862,7 +48862,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>12772.14</t>
+          <t>12,772.14</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -48877,12 +48877,12 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>12883.94</t>
+          <t>12,883.94</t>
         </is>
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>12859.12</t>
+          <t>12,859.12</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -48924,7 +48924,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>8293.37</t>
+          <t>8,293.37</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -48939,12 +48939,12 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>8353.26</t>
+          <t>8,353.26</t>
         </is>
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>8352.25</t>
+          <t>8,352.25</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -48986,7 +48986,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>4273.29</t>
+          <t>4,273.29</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -49001,12 +49001,12 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>4242.10</t>
+          <t>4,242.10</t>
         </is>
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>4242.16</t>
+          <t>4,242.16</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -49048,7 +49048,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>24850.04</t>
+          <t>24,850.04</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -49063,12 +49063,12 @@
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>25220.99</t>
+          <t>25,220.99</t>
         </is>
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>25220.24</t>
+          <t>25,220.24</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -49110,7 +49110,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>8912.93</t>
+          <t>8,912.93</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -49125,12 +49125,12 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>8991.28</t>
+          <t>8,991.28</t>
         </is>
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>8986.04</t>
+          <t>8,986.04</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -49172,7 +49172,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>5039.76</t>
+          <t>5,039.76</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -49187,12 +49187,12 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>5001.09</t>
+          <t>5,001.09</t>
         </is>
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>5001.52</t>
+          <t>5,001.52</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -49234,7 +49234,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>25352.06</t>
+          <t>25,352.06</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -49249,12 +49249,12 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>25750.11</t>
+          <t>25,750.11</t>
         </is>
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>25745.72</t>
+          <t>25,745.72</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -49296,7 +49296,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>16612.95</t>
+          <t>16,612.95</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -49311,12 +49311,12 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>16722.71</t>
+          <t>16,722.71</t>
         </is>
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>16715.37</t>
+          <t>16,715.37</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -49358,7 +49358,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>7548.62</t>
+          <t>7,548.62</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
@@ -49373,12 +49373,12 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>7595.48</t>
+          <t>7,595.48</t>
         </is>
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>7596.20</t>
+          <t>7,596.20</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -49420,7 +49420,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>7403.67</t>
+          <t>7,403.67</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -49435,12 +49435,12 @@
       </c>
       <c r="G791" t="inlineStr">
         <is>
-          <t>7453.87</t>
+          <t>7,453.87</t>
         </is>
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>7451.26</t>
+          <t>7,451.26</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -49482,7 +49482,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>14305.68</t>
+          <t>14,305.68</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
@@ -49497,12 +49497,12 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>14437.13</t>
+          <t>14,437.13</t>
         </is>
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>14402.81</t>
+          <t>14,402.81</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -49544,7 +49544,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>8194.96</t>
+          <t>8,194.96</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -49559,12 +49559,12 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>8207.98</t>
+          <t>8,207.98</t>
         </is>
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>8203.27</t>
+          <t>8,203.27</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -49606,7 +49606,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>10555.73</t>
+          <t>10,555.73</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
@@ -49621,12 +49621,12 @@
       </c>
       <c r="G794" t="inlineStr">
         <is>
-          <t>10633.06</t>
+          <t>10,633.06</t>
         </is>
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>10634.91</t>
+          <t>10,634.91</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -49730,7 +49730,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>7620.75</t>
+          <t>7,620.75</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -49745,12 +49745,12 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>7676.98</t>
+          <t>7,676.98</t>
         </is>
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>7671.32</t>
+          <t>7,671.32</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -49792,7 +49792,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>7401.68</t>
+          <t>7,401.68</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -49807,12 +49807,12 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>7457.97</t>
+          <t>7,457.97</t>
         </is>
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>7457.37</t>
+          <t>7,457.37</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -49854,7 +49854,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>10240.06</t>
+          <t>10,240.06</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
@@ -49869,12 +49869,12 @@
       </c>
       <c r="G798" t="inlineStr">
         <is>
-          <t>10315.62</t>
+          <t>10,315.62</t>
         </is>
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>10308.01</t>
+          <t>10,308.01</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -49916,7 +49916,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>9219.14</t>
+          <t>9,219.14</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -49931,12 +49931,12 @@
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>9281.66</t>
+          <t>9,281.66</t>
         </is>
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>9278.40</t>
+          <t>9,278.40</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -49978,7 +49978,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>8199.70</t>
+          <t>8,199.70</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -49993,12 +49993,12 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
-          <t>8241.20</t>
+          <t>8,241.20</t>
         </is>
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>8239.66</t>
+          <t>8,239.66</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -50040,7 +50040,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>7854.63</t>
+          <t>7,854.63</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -50055,12 +50055,12 @@
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t>7937.79</t>
+          <t>7,937.79</t>
         </is>
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>7943.68</t>
+          <t>7,943.68</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -50102,7 +50102,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>9585.60</t>
+          <t>9,585.60</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
@@ -50117,12 +50117,12 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>9655.93</t>
+          <t>9,655.93</t>
         </is>
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>9642.54</t>
+          <t>9,642.54</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -50164,7 +50164,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>6610.91</t>
+          <t>6,610.91</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
@@ -50179,12 +50179,12 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>6638.02</t>
+          <t>6,638.02</t>
         </is>
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>6637.44</t>
+          <t>6,637.44</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
